--- a/EOBReceiveFeesFromUnitedHealth/faillist.xlsx
+++ b/EOBReceiveFeesFromUnitedHealth/faillist.xlsx
@@ -11,6 +11,48 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>LYDIA</t>
+  </si>
+  <si>
+    <t>08/07/23</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TZ 57959836   $0.00
+</t>
+  </si>
+  <si>
+    <t>UNITED HEALTHCARE</t>
+  </si>
+  <si>
+    <t>06/01/2024</t>
+  </si>
+  <si>
+    <t>GIORDANO</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>07/26/23</t>
+  </si>
+  <si>
+    <t>625.00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +382,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>